--- a/001_GPSCamera_Document/003＿GPSカメラアプリ＿機能リスト.xlsx
+++ b/001_GPSCamera_Document/003＿GPSカメラアプリ＿機能リスト.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="134">
   <si>
     <t>プロジェクト名：</t>
     <rPh sb="6" eb="7">
@@ -298,10 +298,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">   </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Chức năng</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -639,12 +635,88 @@
     <t>Check thông tin vị trí đang bật hay không?</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Icons</t>
+  </si>
+  <si>
+    <t>Folders</t>
+  </si>
+  <si>
+    <t>KMZ (compressed KML, including attached images)</t>
+  </si>
+  <si>
+    <t>Styles for polylines and polygons, including color, fill, and opacity</t>
+  </si>
+  <si>
+    <t>There is a limit on the number of KML Layers that can be displayed on a single Google Map. If you exceed this limit, none of your layers will display. The limit is based on the total length of all URLs passed to the KMLLayer class, and consequently will vary by application; on average, you should be able to load between 10 and 20 layers without hitting the limit.</t>
+  </si>
+  <si>
+    <t>KML in Google Maps for Mobile</t>
+  </si>
+  <si>
+    <t>Google Maps for mobile supports this subset of KML elements:</t>
+  </si>
+  <si>
+    <t>Placemarks with &lt;name&gt; elements</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>HTML in the &lt;description&gt; element (text formatting, images, lists, tables, and other HTML elements)</t>
+  </si>
+  <si>
+    <t>LineStrings and Polygons</t>
+  </si>
+  <si>
+    <t>Account lưu vào file .dat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Thông tin import, export lưu vào folder ứng dụng</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sync Google Photo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Login to Google Account</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sing Up Google Account </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Ref to Google Sing Up Account</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F08</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -779,8 +851,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -805,6 +885,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="27">
     <border>
@@ -1123,10 +1208,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1277,6 +1365,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1319,7 +1408,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="どちらでもない" xfId="1" builtinId="28"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1625,7 +1715,7 @@
   <dimension ref="A2:R14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M2"/>
+      <selection activeCell="G13" sqref="G13:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.15"/>
@@ -2275,54 +2365,54 @@
   <sheetData>
     <row r="2" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="70" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
       <c r="H4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="71" t="s">
+      <c r="I4" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="71"/>
+      <c r="J4" s="72"/>
       <c r="K4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="72">
+      <c r="L4" s="73">
         <v>42250</v>
       </c>
-      <c r="M4" s="72"/>
+      <c r="M4" s="73"/>
       <c r="N4" s="6"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -2331,23 +2421,23 @@
     </row>
     <row r="5" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="71" t="s">
+      <c r="C5" s="74"/>
+      <c r="D5" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="71" t="s">
+      <c r="I5" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="71"/>
+      <c r="J5" s="72"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -2409,17 +2499,17 @@
       <c r="F8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="74" t="s">
+      <c r="G8" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="74" t="s">
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="76"/>
+      <c r="M8" s="77"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="7"/>
@@ -2438,15 +2528,15 @@
       <c r="F9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="62" t="s">
+      <c r="G9" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="66"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="67"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="7"/>
@@ -2459,13 +2549,13 @@
       <c r="D10" s="15"/>
       <c r="E10" s="16"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="66"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="67"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="7"/>
@@ -2478,13 +2568,13 @@
       <c r="D11" s="15"/>
       <c r="E11" s="16"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="66"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="67"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="7"/>
@@ -2497,13 +2587,13 @@
       <c r="D12" s="15"/>
       <c r="E12" s="16"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="66"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="67"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="7"/>
@@ -2516,13 +2606,13 @@
       <c r="D13" s="15"/>
       <c r="E13" s="16"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="66"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="67"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="7"/>
@@ -2573,8 +2663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G35"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2591,22 +2681,22 @@
       <c r="B1" s="23"/>
     </row>
     <row r="2" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
     </row>
     <row r="3" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B4" s="23"/>
@@ -2636,7 +2726,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="34"/>
@@ -2646,7 +2736,7 @@
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" s="37"/>
       <c r="C7" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="27"/>
@@ -2656,7 +2746,7 @@
     <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B8" s="55"/>
       <c r="C8" s="41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" s="43"/>
       <c r="E8" s="44"/>
@@ -2668,7 +2758,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" s="26"/>
       <c r="E9" s="27"/>
@@ -2678,7 +2768,7 @@
     <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B10" s="37"/>
       <c r="C10" s="40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="27"/>
@@ -2688,7 +2778,7 @@
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B11" s="56"/>
       <c r="C11" s="57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="58"/>
       <c r="E11" s="59"/>
@@ -2710,7 +2800,7 @@
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B13" s="37"/>
       <c r="C13" s="40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="27"/>
@@ -2720,7 +2810,7 @@
     <row r="14" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B14" s="55"/>
       <c r="C14" s="41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14" s="43"/>
       <c r="E14" s="44"/>
@@ -2742,7 +2832,7 @@
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B16" s="37"/>
       <c r="C16" s="40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="27"/>
@@ -2752,7 +2842,7 @@
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="56"/>
       <c r="C17" s="57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D17" s="58"/>
       <c r="E17" s="59"/>
@@ -2774,7 +2864,7 @@
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B19" s="37"/>
       <c r="C19" s="40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="27"/>
@@ -2784,7 +2874,7 @@
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B20" s="55"/>
       <c r="C20" s="41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D20" s="43"/>
       <c r="E20" s="44"/>
@@ -2796,7 +2886,7 @@
         <v>46</v>
       </c>
       <c r="C21" s="54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D21" s="26"/>
       <c r="E21" s="27"/>
@@ -2806,7 +2896,7 @@
     <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B22" s="37"/>
       <c r="C22" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D22" s="26"/>
       <c r="E22" s="27"/>
@@ -2816,7 +2906,7 @@
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="37"/>
       <c r="C23" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="27"/>
@@ -2826,7 +2916,7 @@
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="37"/>
       <c r="C24" s="38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
@@ -2836,7 +2926,7 @@
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B25" s="56"/>
       <c r="C25" s="57" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D25" s="58"/>
       <c r="E25" s="59"/>
@@ -2858,7 +2948,7 @@
     <row r="27" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B27" s="55"/>
       <c r="C27" s="39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D27" s="43"/>
       <c r="E27" s="44"/>
@@ -2866,9 +2956,11 @@
       <c r="G27" s="42"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B28" s="37"/>
+      <c r="B28" s="37" t="s">
+        <v>133</v>
+      </c>
       <c r="C28" s="61" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="D28" s="26"/>
       <c r="E28" s="27"/>
@@ -2877,7 +2969,9 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B29" s="37"/>
-      <c r="C29" s="38"/>
+      <c r="C29" s="38" t="s">
+        <v>131</v>
+      </c>
       <c r="D29" s="26"/>
       <c r="E29" s="27"/>
       <c r="F29" s="26"/>
@@ -2885,7 +2979,9 @@
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B30" s="37"/>
-      <c r="C30" s="40"/>
+      <c r="C30" s="40" t="s">
+        <v>132</v>
+      </c>
       <c r="D30" s="26"/>
       <c r="E30" s="27"/>
       <c r="F30" s="26"/>
@@ -2942,29 +3038,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:S79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="9" width="3.625" customWidth="1"/>
-    <col min="10" max="10" width="88.875" customWidth="1"/>
+    <col min="10" max="10" width="62.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="49" t="s">
         <v>51</v>
-      </c>
-      <c r="K2" s="49" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
@@ -2972,7 +3068,7 @@
         <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -2980,7 +3076,7 @@
         <v>34</v>
       </c>
       <c r="K4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -2988,7 +3084,7 @@
         <v>35</v>
       </c>
       <c r="K5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
@@ -2996,7 +3092,7 @@
         <v>36</v>
       </c>
       <c r="K6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
@@ -3004,7 +3100,7 @@
         <v>37</v>
       </c>
       <c r="K7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
@@ -3049,22 +3145,22 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B17" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -3074,30 +3170,30 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="50" t="s">
         <v>62</v>
-      </c>
-      <c r="E24" s="50" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -3107,167 +3203,296 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C33" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="K33" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C34" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="K34" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="62"/>
+      <c r="S34" s="62"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="K35" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="62"/>
+      <c r="O35" s="62"/>
+      <c r="P35" s="62"/>
+      <c r="Q35" s="62"/>
+      <c r="R35" s="62"/>
+      <c r="S35" s="62"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="K36" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="L36" s="62"/>
+      <c r="M36" s="62"/>
+      <c r="N36" s="62"/>
+      <c r="O36" s="62"/>
+      <c r="P36" s="62"/>
+      <c r="Q36" s="62"/>
+      <c r="R36" s="62"/>
+      <c r="S36" s="62"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A37" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="K37" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="62"/>
+      <c r="O37" s="62"/>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="62"/>
+      <c r="R37" s="62"/>
+      <c r="S37" s="62"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B38" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="K38" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="L38" s="62"/>
+      <c r="M38" s="62"/>
+      <c r="N38" s="62"/>
+      <c r="O38" s="62"/>
+      <c r="P38" s="62"/>
+      <c r="Q38" s="62"/>
+      <c r="R38" s="62"/>
+      <c r="S38" s="62"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A39" s="51"/>
       <c r="C39" t="s">
+        <v>72</v>
+      </c>
+      <c r="K39" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="L39" s="62"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="62"/>
+      <c r="O39" s="62"/>
+      <c r="P39" s="62"/>
+      <c r="Q39" s="62"/>
+      <c r="R39" s="62"/>
+      <c r="S39" s="62"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C40" t="s">
+      <c r="K40" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="L40" s="62"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="62"/>
+      <c r="O40" s="62"/>
+      <c r="P40" s="62"/>
+      <c r="Q40" s="62"/>
+      <c r="R40" s="62"/>
+      <c r="S40" s="62"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C41" t="s">
+      <c r="K41" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="L41" s="62"/>
+      <c r="M41" s="62"/>
+      <c r="N41" s="62"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="62"/>
+      <c r="Q41" s="62"/>
+      <c r="R41" s="62"/>
+      <c r="S41" s="62"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D42" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D42" t="s">
+      <c r="K42" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="L42" s="62"/>
+      <c r="M42" s="62"/>
+      <c r="N42" s="62"/>
+      <c r="O42" s="62"/>
+      <c r="P42" s="62"/>
+      <c r="Q42" s="62"/>
+      <c r="R42" s="62"/>
+      <c r="S42" s="62"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="K43" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="L43" s="62"/>
+      <c r="M43" s="62"/>
+      <c r="N43" s="62"/>
+      <c r="O43" s="62"/>
+      <c r="P43" s="62"/>
+      <c r="Q43" s="62"/>
+      <c r="R43" s="62"/>
+      <c r="S43" s="62"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A44" s="49" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="49" t="s">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B45" t="s">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C46" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C46" t="s">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="C47" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C47" t="s">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D48" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D48" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
+        <v>92</v>
+      </c>
+      <c r="B68" t="s">
         <v>93</v>
-      </c>
-      <c r="B68" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B75" s="53"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B78" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B79" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/001_GPSCamera_Document/003＿GPSカメラアプリ＿機能リスト.xlsx
+++ b/001_GPSCamera_Document/003＿GPSカメラアプリ＿機能リスト.xlsx
@@ -294,10 +294,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Draw KML layer</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Chức năng</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -709,6 +705,10 @@
   </si>
   <si>
     <t>F08</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Draw KML layer</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1366,7 +1366,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1375,6 +1375,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1403,7 +1404,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2365,54 +2365,54 @@
   <sheetData>
     <row r="2" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
     </row>
     <row r="4" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="71" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
       <c r="H4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="72" t="s">
+      <c r="I4" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="72"/>
+      <c r="J4" s="73"/>
       <c r="K4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="73">
+      <c r="L4" s="74">
         <v>42250</v>
       </c>
-      <c r="M4" s="73"/>
+      <c r="M4" s="74"/>
       <c r="N4" s="6"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -2421,23 +2421,23 @@
     </row>
     <row r="5" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="72" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="72" t="s">
+      <c r="I5" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="72"/>
+      <c r="J5" s="73"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -2499,17 +2499,17 @@
       <c r="F8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="75" t="s">
+      <c r="G8" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="75" t="s">
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="77"/>
+      <c r="M8" s="78"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="7"/>
@@ -2528,7 +2528,7 @@
       <c r="F9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="63" t="s">
+      <c r="G9" s="68" t="s">
         <v>18</v>
       </c>
       <c r="H9" s="64"/>
@@ -2549,7 +2549,7 @@
       <c r="D10" s="15"/>
       <c r="E10" s="16"/>
       <c r="F10" s="18"/>
-      <c r="G10" s="78"/>
+      <c r="G10" s="63"/>
       <c r="H10" s="64"/>
       <c r="I10" s="64"/>
       <c r="J10" s="64"/>
@@ -2568,7 +2568,7 @@
       <c r="D11" s="15"/>
       <c r="E11" s="16"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="78"/>
+      <c r="G11" s="63"/>
       <c r="H11" s="64"/>
       <c r="I11" s="64"/>
       <c r="J11" s="64"/>
@@ -2587,7 +2587,7 @@
       <c r="D12" s="15"/>
       <c r="E12" s="16"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="78"/>
+      <c r="G12" s="63"/>
       <c r="H12" s="64"/>
       <c r="I12" s="64"/>
       <c r="J12" s="64"/>
@@ -2606,7 +2606,7 @@
       <c r="D13" s="15"/>
       <c r="E13" s="16"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="78"/>
+      <c r="G13" s="63"/>
       <c r="H13" s="64"/>
       <c r="I13" s="64"/>
       <c r="J13" s="64"/>
@@ -2623,14 +2623,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:M12"/>
     <mergeCell ref="G9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="B2:M2"/>
@@ -2644,6 +2636,14 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="L8:M8"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:M12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -2663,8 +2663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2726,7 +2726,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="34"/>
@@ -2736,7 +2736,7 @@
     <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7" s="37"/>
       <c r="C7" s="40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="27"/>
@@ -2746,7 +2746,7 @@
     <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B8" s="55"/>
       <c r="C8" s="41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8" s="43"/>
       <c r="E8" s="44"/>
@@ -2758,7 +2758,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" s="26"/>
       <c r="E9" s="27"/>
@@ -2768,7 +2768,7 @@
     <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B10" s="37"/>
       <c r="C10" s="40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="27"/>
@@ -2778,7 +2778,7 @@
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B11" s="56"/>
       <c r="C11" s="57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" s="58"/>
       <c r="E11" s="59"/>
@@ -2800,7 +2800,7 @@
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B13" s="37"/>
       <c r="C13" s="40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="27"/>
@@ -2810,7 +2810,7 @@
     <row r="14" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B14" s="55"/>
       <c r="C14" s="41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" s="43"/>
       <c r="E14" s="44"/>
@@ -2832,7 +2832,7 @@
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B16" s="37"/>
       <c r="C16" s="40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="27"/>
@@ -2842,7 +2842,7 @@
     <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="56"/>
       <c r="C17" s="57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D17" s="58"/>
       <c r="E17" s="59"/>
@@ -2864,7 +2864,7 @@
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B19" s="37"/>
       <c r="C19" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D19" s="26"/>
       <c r="E19" s="27"/>
@@ -2874,7 +2874,7 @@
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B20" s="55"/>
       <c r="C20" s="41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D20" s="43"/>
       <c r="E20" s="44"/>
@@ -2886,7 +2886,7 @@
         <v>46</v>
       </c>
       <c r="C21" s="54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D21" s="26"/>
       <c r="E21" s="27"/>
@@ -2896,7 +2896,7 @@
     <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B22" s="37"/>
       <c r="C22" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D22" s="26"/>
       <c r="E22" s="27"/>
@@ -2906,7 +2906,7 @@
     <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="37"/>
       <c r="C23" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D23" s="26"/>
       <c r="E23" s="27"/>
@@ -2916,7 +2916,7 @@
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="37"/>
       <c r="C24" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="27"/>
@@ -2926,7 +2926,7 @@
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B25" s="56"/>
       <c r="C25" s="57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D25" s="58"/>
       <c r="E25" s="59"/>
@@ -2938,7 +2938,7 @@
         <v>47</v>
       </c>
       <c r="C26" s="46" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="D26" s="33"/>
       <c r="E26" s="34"/>
@@ -2948,7 +2948,7 @@
     <row r="27" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B27" s="55"/>
       <c r="C27" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D27" s="43"/>
       <c r="E27" s="44"/>
@@ -2957,10 +2957,10 @@
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B28" s="37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C28" s="61" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D28" s="26"/>
       <c r="E28" s="27"/>
@@ -2970,7 +2970,7 @@
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B29" s="37"/>
       <c r="C29" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="27"/>
@@ -2980,7 +2980,7 @@
     <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B30" s="37"/>
       <c r="C30" s="40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D30" s="26"/>
       <c r="E30" s="27"/>
@@ -3052,15 +3052,15 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="49" t="s">
         <v>50</v>
-      </c>
-      <c r="K2" s="49" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
@@ -3068,7 +3068,7 @@
         <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
@@ -3076,7 +3076,7 @@
         <v>34</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -3084,7 +3084,7 @@
         <v>35</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
@@ -3092,7 +3092,7 @@
         <v>36</v>
       </c>
       <c r="K6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
@@ -3100,7 +3100,7 @@
         <v>37</v>
       </c>
       <c r="K7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
@@ -3145,22 +3145,22 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B17" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -3170,30 +3170,30 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="50" t="s">
         <v>61</v>
-      </c>
-      <c r="E24" s="50" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -3203,25 +3203,25 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.15">
@@ -3229,7 +3229,7 @@
         <v>45</v>
       </c>
       <c r="K34" s="62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L34" s="62"/>
       <c r="M34" s="62"/>
@@ -3242,7 +3242,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.15">
       <c r="K35" s="62" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L35" s="62"/>
       <c r="M35" s="62"/>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.15">
       <c r="K36" s="62" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L36" s="62"/>
       <c r="M36" s="62"/>
@@ -3268,10 +3268,10 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A37" s="49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K37" s="62" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L37" s="62"/>
       <c r="M37" s="62"/>
@@ -3284,10 +3284,10 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K38" s="62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L38" s="62"/>
       <c r="M38" s="62"/>
@@ -3301,10 +3301,10 @@
     <row r="39" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A39" s="51"/>
       <c r="C39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K39" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L39" s="62"/>
       <c r="M39" s="62"/>
@@ -3317,10 +3317,10 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K40" s="62" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L40" s="62"/>
       <c r="M40" s="62"/>
@@ -3333,10 +3333,10 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K41" s="62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L41" s="62"/>
       <c r="M41" s="62"/>
@@ -3349,10 +3349,10 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K42" s="62" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L42" s="62"/>
       <c r="M42" s="62"/>
@@ -3365,7 +3365,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.15">
       <c r="K43" s="62" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L43" s="62"/>
       <c r="M43" s="62"/>
@@ -3378,121 +3378,121 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A44" s="49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" t="s">
         <v>92</v>
-      </c>
-      <c r="B68" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B75" s="53"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B79" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
